--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N2">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q2">
-        <v>14.81448163170282</v>
+        <v>17.62918478825933</v>
       </c>
       <c r="R2">
-        <v>14.81448163170282</v>
+        <v>158.662663094334</v>
       </c>
       <c r="S2">
-        <v>0.01963918189671908</v>
+        <v>0.02166855172997286</v>
       </c>
       <c r="T2">
-        <v>0.01963918189671908</v>
+        <v>0.02166855172997286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N3">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q3">
-        <v>5.164565391810795</v>
+        <v>5.811110758054333</v>
       </c>
       <c r="R3">
-        <v>5.164565391810795</v>
+        <v>52.299996822489</v>
       </c>
       <c r="S3">
-        <v>0.006846533120012651</v>
+        <v>0.007142607873357881</v>
       </c>
       <c r="T3">
-        <v>0.006846533120012651</v>
+        <v>0.007142607873357881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q4">
-        <v>1.58603304480961</v>
+        <v>1.756030489917334</v>
       </c>
       <c r="R4">
-        <v>1.58603304480961</v>
+        <v>15.804274409256</v>
       </c>
       <c r="S4">
-        <v>0.002102563709996164</v>
+        <v>0.00215838894238174</v>
       </c>
       <c r="T4">
-        <v>0.002102563709996164</v>
+        <v>0.00215838894238174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N5">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q5">
-        <v>424.7343351607588</v>
+        <v>465.935511623775</v>
       </c>
       <c r="R5">
-        <v>424.7343351607588</v>
+        <v>4193.419604613975</v>
       </c>
       <c r="S5">
-        <v>0.5630595165850157</v>
+        <v>0.5726950995019895</v>
       </c>
       <c r="T5">
-        <v>0.5630595165850157</v>
+        <v>0.5726950995019895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N6">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q6">
-        <v>148.0691868010292</v>
+        <v>153.5863907876032</v>
       </c>
       <c r="R6">
-        <v>148.0691868010292</v>
+        <v>1382.277517088429</v>
       </c>
       <c r="S6">
-        <v>0.1962915588394057</v>
+        <v>0.1887775693415717</v>
       </c>
       <c r="T6">
-        <v>0.1962915588394057</v>
+        <v>0.1887775693415717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q7">
-        <v>45.47190428780281</v>
+        <v>46.41150311677957</v>
       </c>
       <c r="R7">
-        <v>45.47190428780281</v>
+        <v>417.7035280510161</v>
       </c>
       <c r="S7">
-        <v>0.060280948176228</v>
+        <v>0.05704574932026861</v>
       </c>
       <c r="T7">
-        <v>0.060280948176228</v>
+        <v>0.05704574932026861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N8">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O8">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P8">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q8">
-        <v>78.65242831616378</v>
+        <v>85.67785364444599</v>
       </c>
       <c r="R8">
-        <v>78.65242831616378</v>
+        <v>771.1006828000139</v>
       </c>
       <c r="S8">
-        <v>0.1042675258386513</v>
+        <v>0.1053091805495238</v>
       </c>
       <c r="T8">
-        <v>0.1042675258386513</v>
+        <v>0.1053091805495239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N9">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P9">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q9">
-        <v>27.41949528590076</v>
+        <v>28.242003417641</v>
       </c>
       <c r="R9">
-        <v>27.41949528590076</v>
+        <v>254.178030758769</v>
       </c>
       <c r="S9">
-        <v>0.03634932823323767</v>
+        <v>0.03471308057425201</v>
       </c>
       <c r="T9">
-        <v>0.03634932823323767</v>
+        <v>0.03471308057425202</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P10">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q10">
-        <v>8.420500525445396</v>
+        <v>8.534309732264001</v>
       </c>
       <c r="R10">
-        <v>8.420500525445396</v>
+        <v>76.808787590376</v>
       </c>
       <c r="S10">
-        <v>0.01116284360073369</v>
+        <v>0.01048977216668182</v>
       </c>
       <c r="T10">
-        <v>0.01116284360073369</v>
+        <v>0.01048977216668182</v>
       </c>
     </row>
   </sheetData>
